--- a/DB.xlsx
+++ b/DB.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NO7"/>
+  <dimension ref="A1:NO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,85 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LU18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ra</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LU18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>radsaa</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LU18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>asa</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -640,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,6 +738,20 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>ra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>radsaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>asa</t>
         </is>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NO10"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
@@ -690,7 +689,6 @@
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>LU18</t>
